--- a/evaluation12_12_6.xlsx
+++ b/evaluation12_12_6.xlsx
@@ -10,6 +10,43 @@
     <sheet name="data68" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="data40" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="data79" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="data116" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="data113" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="data13" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="data126" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="data42" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="data35" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="data43" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="data58" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="data136" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="data129" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="data26" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="data38" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="data30" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="data188" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="data61" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="data21" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="data198" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="data134" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="data60" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="data36" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="data34" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="data180" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="data125" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="data135" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="data2" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="data67" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="data56" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="data29" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="data51" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="data100" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="data120" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="data3" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="data124" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="data75" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="data98" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="data65" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="data48" sheetId="40" state="visible" r:id="rId40"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -576,6 +613,1556 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6095016069892717</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7748014731269421</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6822822974993034</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34756</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3193913043478261</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1755232724839912</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2265465984086844</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20926</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8697142857142857</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8697142857142857</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8697142857142857</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8697142857142857</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6429643037790326</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6501082485369778</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6362762986359959</v>
+      </c>
+      <c r="E6" t="n">
+        <v>192500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8555086768171518</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8697142857142857</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8585564553256411</v>
+      </c>
+      <c r="E7" t="n">
+        <v>192500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>150131</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5715899521432826</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7760673749965141</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6583161829063467</v>
+      </c>
+      <c r="E3" t="n">
+        <v>35859</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5369622880867259</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3086509777925091</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3919851826906886</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30170</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8663582531458179</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8663582531458179</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8663582531458179</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8663582531458179</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7028507467433361</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6949061175963411</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6834337885323452</v>
+      </c>
+      <c r="E6" t="n">
+        <v>216160</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8643032768573395</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8663582531458179</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8584555559058882</v>
+      </c>
+      <c r="E7" t="n">
+        <v>216160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>155647</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6523039489025194</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7639515554500119</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7037269968007438</v>
+      </c>
+      <c r="E3" t="n">
+        <v>33688</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5471268295461017</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4118756698821007</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4699638000195676</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23325</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8981002539264554</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8981002539264554</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8981002539264554</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8981002539264554</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.733143592816207</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7252757417773709</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7245635989401037</v>
+      </c>
+      <c r="E6" t="n">
+        <v>212660</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8952485127893863</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8981002539264554</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8949311610254861</v>
+      </c>
+      <c r="E7" t="n">
+        <v>212660</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>117966</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6433980483838179</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8003730163747866</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7133519285492913</v>
+      </c>
+      <c r="E3" t="n">
+        <v>31634</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5112985605943352</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3201065891472868</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3937190870627496</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20640</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8804746240601504</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8804746240601504</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8804746240601504</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8804746240601504</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7182322029927176</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7068265351740245</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7023570052040137</v>
+      </c>
+      <c r="E6" t="n">
+        <v>170240</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8744857621783411</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8804746240601504</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8732291874101471</v>
+      </c>
+      <c r="E7" t="n">
+        <v>170240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>109771</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5688523045021835</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8076545632973503</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.667539218758641</v>
+      </c>
+      <c r="E3" t="n">
+        <v>22418</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4555555555555555</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2081818706364318</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2857708605599778</v>
+      </c>
+      <c r="E4" t="n">
+        <v>17331</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.879380684858213</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.879380684858213</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.879380684858213</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.879380684858213</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6748026200192464</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6719454779779275</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6511033597728729</v>
+      </c>
+      <c r="E6" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8722496274455811</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.879380684858213</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.867366164997968</v>
+      </c>
+      <c r="E7" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>109079</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6719087635054022</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8275607141536983</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7416560382952644</v>
+      </c>
+      <c r="E3" t="n">
+        <v>27053</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3448953798623789</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1834478637585898</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2395046077331903</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13388</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8956861958266452</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8956861958266452</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8956861958266452</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8956861958266452</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6722680477892604</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6703361926374294</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6603868820094849</v>
+      </c>
+      <c r="E6" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.881979715922346</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8956861958266452</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8851625768615152</v>
+      </c>
+      <c r="E7" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>103024</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6285222628522262</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8015086576375793</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7045526470455264</v>
+      </c>
+      <c r="E3" t="n">
+        <v>29165</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3777944969905417</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2028157636604928</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2639384268819223</v>
+      </c>
+      <c r="E4" t="n">
+        <v>17331</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8688804173354735</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8688804173354735</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8688804173354735</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8688804173354735</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6687722532809226</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6681081404326906</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6561636913091496</v>
+      </c>
+      <c r="E6" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8554200656997609</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8688804173354735</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8570532024302661</v>
+      </c>
+      <c r="E7" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>119056</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6564632322957727</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8165556419707165</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7278097591850268</v>
+      </c>
+      <c r="E3" t="n">
+        <v>29573</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.50856055802156</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3075995835844611</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3833390235575281</v>
+      </c>
+      <c r="E4" t="n">
+        <v>18251</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8917665388302972</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8917665388302972</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8917665388302972</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8917665388302972</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7216745967724444</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7080517418517259</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7037162609141849</v>
+      </c>
+      <c r="E6" t="n">
+        <v>166880</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8853746758936624</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8917665388302972</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8843230975990368</v>
+      </c>
+      <c r="E7" t="n">
+        <v>166880</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>170001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6041516158551269</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7690751356488151</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6767097792223555</v>
+      </c>
+      <c r="E3" t="n">
+        <v>32621</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4281484855386017</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2554579219132168</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3199909222433406</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22078</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8933199821984869</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8933199821984869</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8933199821984869</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8933199821984869</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6774333671312428</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6748443525206773</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6655669004885654</v>
+      </c>
+      <c r="E6" t="n">
+        <v>224700</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8863448692680522</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8933199821984869</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8862514877138448</v>
+      </c>
+      <c r="E7" t="n">
+        <v>224700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>111142</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5548624802042598</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8156981992683042</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6604601061783488</v>
+      </c>
+      <c r="E3" t="n">
+        <v>21047</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4784187172246874</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.205296866885927</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2873062015503876</v>
+      </c>
+      <c r="E4" t="n">
+        <v>17331</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8819422150882825</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8819422150882825</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8819422150882825</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8819422150882825</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6777603991429824</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6736650220514105</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6492554359095788</v>
+      </c>
+      <c r="E6" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8768837975460146</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8819422150882825</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8695960917188702</v>
+      </c>
+      <c r="E7" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -724,6 +2311,1556 @@
       </c>
       <c r="E7" t="n">
         <v>149520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>98279</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6864988558352403</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8454500898545989</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7577282793711222</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24484</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5309866137828458</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3118584843852369</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3929373996789727</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13737</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.903025641025641</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.903025641025641</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.903025641025641</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.903025641025641</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7391618232060287</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7191028580799452</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.716888559683365</v>
+      </c>
+      <c r="E6" t="n">
+        <v>136500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8965670410242123</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.903025641025641</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8954505512931327</v>
+      </c>
+      <c r="E7" t="n">
+        <v>136500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>154949</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6649833300647185</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7888675623800384</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7216472904307112</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34386</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5708966250960459</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4141050375133977</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4800218666136567</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23325</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9015987962005079</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9015987962005079</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9015987962005079</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9015987962005079</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7452933183869215</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7343241999644787</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7338897190147894</v>
+      </c>
+      <c r="E6" t="n">
+        <v>212660</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8987646034419764</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9015987962005079</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8979595305535314</v>
+      </c>
+      <c r="E7" t="n">
+        <v>212660</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>145793</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5971178188899708</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7627932432768615</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6698635673479196</v>
+      </c>
+      <c r="E3" t="n">
+        <v>40197</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4986065099647684</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3142857142857143</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.385549027181979</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30170</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8601822723908216</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8601822723908216</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8601822723908216</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8601822723908216</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.698574776284913</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6923596525208587</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6851375315099663</v>
+      </c>
+      <c r="E6" t="n">
+        <v>216160</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8550994789579812</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8601822723908216</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8528475202015389</v>
+      </c>
+      <c r="E7" t="n">
+        <v>216160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>112500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6357551294988227</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7998053486797563</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7084067313818821</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23632</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3510288065843621</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.191141320585599</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2475094303124093</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13388</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8959336543606207</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8959336543606207</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8959336543606207</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8959336543606207</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6622613120277283</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6636488897551184</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6519720538980972</v>
+      </c>
+      <c r="E6" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8843214210999707</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8959336543606207</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8865350730941626</v>
+      </c>
+      <c r="E7" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>112516</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6413569204266879</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8197831978319783</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.719675848481469</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23616</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3757700205338809</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1913654018524051</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2535880431554983</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13388</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8991305510968433</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8991305510968433</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8991305510968433</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8991305510968433</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6723756469868563</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6703828665614612</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6577546305456559</v>
+      </c>
+      <c r="E6" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8874605007203334</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8991305510968433</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8888904598682731</v>
+      </c>
+      <c r="E7" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>57094</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6682883417383566</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7189634263100785</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6927003259332145</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15667</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3683833022521876</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3147444539772031</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3394580304031725</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8159</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8764953040039545</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8764953040039545</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8764953040039545</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8764953040039545</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6788905479968482</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6779026267624272</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6773861187787956</v>
+      </c>
+      <c r="E6" t="n">
+        <v>80920</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8720923481597928</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8764953040039545</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8739022995113095</v>
+      </c>
+      <c r="E7" t="n">
+        <v>80920</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>115374</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6524047007702943</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7720738619762754</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7072126321423792</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34226</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4568305249965186</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3178779069767442</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3748928632649563</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20640</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8714755639097744</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8714755639097744</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8714755639097744</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8714755639097744</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7030784085889378</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6966505896510066</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6940351651357785</v>
+      </c>
+      <c r="E6" t="n">
+        <v>170240</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8642633066523276</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8714755639097744</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8653480277578347</v>
+      </c>
+      <c r="E7" t="n">
+        <v>170240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>146395</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7032936016847956</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7543782021425245</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7279407633793638</v>
+      </c>
+      <c r="E3" t="n">
+        <v>42940</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4780263288132238</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4141050375133977</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4437757000758081</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23325</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8861421988150099</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8861421988150099</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8861421988150099</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8861421988150099</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7271066434993397</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.722827746551974</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7239054878183907</v>
+      </c>
+      <c r="E6" t="n">
+        <v>212660</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8828382929366762</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8861421988150099</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8840583305923921</v>
+      </c>
+      <c r="E7" t="n">
+        <v>212660</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>96278</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5499314080692251</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8060424829861828</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.653800313643492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19396</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3151283451665756</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1191656340355225</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1729357110744792</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14526</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8728341013824885</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8728341013824885</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8728341013824885</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8728341013824885</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6216865844119336</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6417360390072351</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6089120082393237</v>
+      </c>
+      <c r="E6" t="n">
+        <v>130200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8565439626175143</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8728341013824885</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8561534179915288</v>
+      </c>
+      <c r="E7" t="n">
+        <v>130200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>161627</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6614189625372233</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7747774118794974</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7136245169407747</v>
+      </c>
+      <c r="E3" t="n">
+        <v>40995</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.38659314376827</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2635655403569164</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3134392674387288</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22078</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8865509568313307</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8865509568313307</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8865509568313307</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8865509568313307</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6826707021018311</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6794476507454713</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6756879281265012</v>
+      </c>
+      <c r="E6" t="n">
+        <v>224700</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.877957604794523</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8865509568313307</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8802943890453908</v>
+      </c>
+      <c r="E7" t="n">
+        <v>224700</v>
       </c>
     </row>
   </sheetData>
@@ -884,4 +4021,2639 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>153803</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5355367131314925</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7495883431198931</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6247362083921335</v>
+      </c>
+      <c r="E3" t="n">
+        <v>32187</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5342386593470095</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3064302287040106</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3894681411269089</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30170</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.865909511472983</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.865909511472983</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.865909511472983</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.865909511472983</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6899251241595007</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6853395239413013</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6714014498396809</v>
+      </c>
+      <c r="E6" t="n">
+        <v>216160</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8658322563751972</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.865909511472983</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.85890839265968</v>
+      </c>
+      <c r="E7" t="n">
+        <v>216160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>105414</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.613274236983842</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8165079365079365</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7004469506431924</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26775</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4191298179238591</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2045467659107957</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2749234169607197</v>
+      </c>
+      <c r="E4" t="n">
+        <v>17331</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8749398073836276</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8749398073836276</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8749398073836276</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8749398073836276</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6774680183025671</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6736849008062441</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6584567892013041</v>
+      </c>
+      <c r="E6" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8634186501450025</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8749398073836276</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8623138365624513</v>
+      </c>
+      <c r="E7" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>155920</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5238106083035369</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7648819421350183</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6217980778328985</v>
+      </c>
+      <c r="E3" t="n">
+        <v>30070</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5670810115730819</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3069605568445475</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3983140147523709</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30170</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8705634715025907</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8705634715025907</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8705634715025907</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8705634715025907</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6969638732922063</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6906141663265219</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6733706975284232</v>
+      </c>
+      <c r="E6" t="n">
+        <v>216160</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8733337301575094</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8705634715025907</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8634095208434229</v>
+      </c>
+      <c r="E7" t="n">
+        <v>216160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>84143</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6430086587613451</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8073967339097022</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7158868735360732</v>
+      </c>
+      <c r="E3" t="n">
+        <v>22902</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4006793478260869</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.223155505107832</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2866585662211422</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13215</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8779560951272244</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8779560951272244</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8779560951272244</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8779560951272244</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.681229335529144</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.676850746339178</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6675151465857384</v>
+      </c>
+      <c r="E6" t="n">
+        <v>120260</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8661580066894567</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8779560951272244</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8675073518238445</v>
+      </c>
+      <c r="E7" t="n">
+        <v>120260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>136171</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6249592205137128</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7613937466878643</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6864630490091855</v>
+      </c>
+      <c r="E3" t="n">
+        <v>37740</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.516120365394949</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3577414428842787</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4225785872984447</v>
+      </c>
+      <c r="E4" t="n">
+        <v>26849</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8692518429966128</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8692518429966128</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8692518429966128</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8692518429966128</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7136931953028872</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7063783965240478</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7030138787692101</v>
+      </c>
+      <c r="E6" t="n">
+        <v>200760</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8647851996048841</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8692518429966128</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8638370589758049</v>
+      </c>
+      <c r="E7" t="n">
+        <v>200760</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>92554</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5968111484259754</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8224480968858131</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6916934941161492</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23120</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2904062229904927</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1156546881453945</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1654276008074442</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14526</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8698079877112135</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8698079877112135</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8698079877112135</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8698079877112135</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6290724571388226</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6460342616770692</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6190403649745312</v>
+      </c>
+      <c r="E6" t="n">
+        <v>130200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8492374389152723</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8698079877112135</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.852142510854795</v>
+      </c>
+      <c r="E7" t="n">
+        <v>130200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>123505</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6001778899951223</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.801609503736348</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6864212115245784</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26095</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5642989395724626</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3248546511627907</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4123362646823689</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20640</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.887734962406015</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.887734962406015</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.887734962406015</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.887734962406015</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7214922765225283</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7088213849663796</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6995858254023157</v>
+      </c>
+      <c r="E6" t="n">
+        <v>170240</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8858891691271049</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.887734962406015</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.88068480978488</v>
+      </c>
+      <c r="E7" t="n">
+        <v>170240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>137139</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6056896771182485</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7577631509103455</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6732456140350876</v>
+      </c>
+      <c r="E3" t="n">
+        <v>37678</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4773521159021932</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3096237417821194</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3756139323210022</v>
+      </c>
+      <c r="E4" t="n">
+        <v>26923</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8626251610984436</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8626251610984436</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8626251610984436</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8626251610984436</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6943472643401473</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6891289642308216</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6829531821186966</v>
+      </c>
+      <c r="E6" t="n">
+        <v>201740</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8566071511395664</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8626251610984436</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8556468828466958</v>
+      </c>
+      <c r="E7" t="n">
+        <v>201740</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>85944</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6273356154614178</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8337519548836548</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7159629667311019</v>
+      </c>
+      <c r="E3" t="n">
+        <v>21101</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4406887755102041</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2091562618236852</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2836762970185251</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13215</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8839264925993681</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8839264925993681</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8839264925993681</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8839264925993681</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6893414636572074</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6809694055691132</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6665464212498757</v>
+      </c>
+      <c r="E6" t="n">
+        <v>120260</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8731507649278125</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8839264925993681</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8714478365715349</v>
+      </c>
+      <c r="E7" t="n">
+        <v>120260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>156933</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6718363766844749</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7376392567138699</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.703201777722137</v>
+      </c>
+      <c r="E3" t="n">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3190365278645685</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.254370866926352</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2830573826264459</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22078</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8733911882510014</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8733911882510014</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8733911882510014</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8733911882510014</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6636243015163479</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6640033745467406</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6620863867828609</v>
+      </c>
+      <c r="E6" t="n">
+        <v>224700</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8663650230375207</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8733911882510014</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8692075074142118</v>
+      </c>
+      <c r="E7" t="n">
+        <v>224700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>144469</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5585684403856946</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7437334420216017</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.637987296777577</v>
+      </c>
+      <c r="E3" t="n">
+        <v>29442</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5584879162034057</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3554694774479497</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4344303336519642</v>
+      </c>
+      <c r="E4" t="n">
+        <v>26849</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8762203626220363</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8762203626220363</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8762203626220363</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8762203626220363</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7056854521963668</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6997343064898504</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6908058768098471</v>
+      </c>
+      <c r="E6" t="n">
+        <v>200760</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8762164479178166</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8762203626220363</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8712723750744522</v>
+      </c>
+      <c r="E7" t="n">
+        <v>200760</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>137592</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7629333176387499</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6717276401699658</v>
+      </c>
+      <c r="E3" t="n">
+        <v>33982</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3113352709864934</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1740418617987193</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2232712113781265</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20926</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8683636363636363</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8683636363636363</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8683636363636363</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8683636363636363</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6371117569954978</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6456583931458231</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6316662838493641</v>
+      </c>
+      <c r="E6" t="n">
+        <v>192500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8545257240553942</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8683636363636363</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8576146599353479</v>
+      </c>
+      <c r="E7" t="n">
+        <v>192500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>138904</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6121903564129629</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7786728368611991</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6854678502275757</v>
+      </c>
+      <c r="E3" t="n">
+        <v>35007</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5528882220555139</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3568475548437558</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4337453030920367</v>
+      </c>
+      <c r="E4" t="n">
+        <v>26849</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8753935046822076</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8753935046822076</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8753935046822076</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8753935046822076</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7216928594894924</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7118401305683184</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7064043844398707</v>
+      </c>
+      <c r="E6" t="n">
+        <v>200760</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8725814090501947</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8753935046822076</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.869425187665047</v>
+      </c>
+      <c r="E7" t="n">
+        <v>200760</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>70364</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6517849032609683</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8054666891171354</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7205221538847747</v>
+      </c>
+      <c r="E3" t="n">
+        <v>17817</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4633013316816352</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2807017543859649</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3495939709061167</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10659</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.887363415621206</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.887363415621206</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.887363415621206</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.887363415621206</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7050287449808678</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6953894811677001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6900387082636305</v>
+      </c>
+      <c r="E6" t="n">
+        <v>98840</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8793522917421612</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.887363415621206</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.879480628810738</v>
+      </c>
+      <c r="E7" t="n">
+        <v>98840</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>123447</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.592872191011236</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.774748594807479</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6717167531369657</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26153</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5330902750257589</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3258720930232558</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4044862735664672</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20640</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8836642387218046</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8836642387218046</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8836642387218046</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8836642387218046</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.708654155345665</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7002068959435782</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6920676755678109</v>
+      </c>
+      <c r="E6" t="n">
+        <v>170240</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.880846861419458</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8836642387218046</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8773672752067843</v>
+      </c>
+      <c r="E7" t="n">
+        <v>170240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>141638</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5697461073093325</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7676042223409941</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6540388227927364</v>
+      </c>
+      <c r="E3" t="n">
+        <v>29936</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3393162393162393</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1707445283379528</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.227174465920651</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20926</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8737142857142857</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8737142857142857</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8737142857142857</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8737142857142857</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6363541155418573</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6461162502263156</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6270710962377959</v>
+      </c>
+      <c r="E6" t="n">
+        <v>192500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8612698758043834</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8737142857142857</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8621878393401501</v>
+      </c>
+      <c r="E7" t="n">
+        <v>192500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>105542</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6915041980930696</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7942464857796666</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7393229364777483</v>
+      </c>
+      <c r="E3" t="n">
+        <v>30590</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2882505936899242</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1903943830295787</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2293194188295623</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13388</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8854133226324238</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8854133226324238</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8854133226324238</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8854133226324238</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6599182639276646</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6615469562697484</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6562141184357703</v>
+      </c>
+      <c r="E6" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8731555134295593</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8854133226324238</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8776619649956159</v>
+      </c>
+      <c r="E7" t="n">
+        <v>149520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>